--- a/Skills Gap Analysis.xlsx
+++ b/Skills Gap Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Job Profile" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Enter a detailed Role Profile for the job you have identified, including a list of the skills and competencies required for the role</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Soft-Skills required for the role</t>
+  </si>
+  <si>
+    <t>Portuguese Speaking</t>
   </si>
   <si>
     <t>SWOT ANALYSIS</t>
@@ -1795,7 +1798,7 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:I22"/>
     </sheetView>
   </sheetViews>
@@ -1827,6 +1830,11 @@
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="41" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:1">
+      <c r="A24" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1861,15 +1869,15 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="2:2">
       <c r="B1" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="2:3">
       <c r="B2" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="2:3">
@@ -1879,10 +1887,10 @@
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="34.5" customHeight="1" spans="2:3">
       <c r="B5" s="31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="2:3">
@@ -1928,10 +1936,10 @@
     </row>
     <row r="16" ht="34.5" customHeight="1" spans="2:3">
       <c r="B16" s="39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="2:3">
@@ -2982,7 +2990,7 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2993,22 +3001,22 @@
     </row>
     <row r="2" ht="38.25" customHeight="1" spans="1:21">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
@@ -3117,65 +3125,65 @@
     <row r="13" ht="14.25" customHeight="1"/>
     <row r="14" ht="14.25" customHeight="1" spans="1:3">
       <c r="A14" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="23"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:3">
       <c r="A15" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="24"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:3">
       <c r="A16" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="24"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="24"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:3">
       <c r="A18" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="24"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:3">
       <c r="A19" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="24"/>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1" spans="1:3">
       <c r="A21" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="23"/>
     </row>
@@ -3184,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="23"/>
     </row>
@@ -3193,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="23"/>
     </row>
@@ -3202,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="23"/>
     </row>
@@ -3211,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="23"/>
     </row>
@@ -4205,15 +4213,15 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
